--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9015" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Codeforces" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Snacktower</t>
   </si>
@@ -266,22 +266,41 @@
     <t>一开始想了个容斥，还是 错的……dp这个正难则反的思路没想也是傻傻呆呆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>768E</t>
+  </si>
+  <si>
+    <t>Game of Stones</t>
+  </si>
+  <si>
+    <t>N堆石子，每次可以选择其中一堆取走一定数量的数字，对于同一堆石子，一个数量只能使用一次，即4不能取2+2，也不能2+1+1</t>
+  </si>
+  <si>
+    <t>动态规划，博弈论</t>
+  </si>
+  <si>
+    <t>每堆石子是个独立游戏，所以问题变成一堆石子如何计算，基本上就是直接用朴素动态规划，然后用Hash表来记录已经计算过的值；也可以通过计算小结点寻找规律然后打表</t>
+  </si>
+  <si>
+    <t>1WA 第一次dp写错了，于是打的表也错了
+2AC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -610,26 +629,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="55.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="57.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="51.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="82.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -684,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="132" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="132">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -710,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="165" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="181.5">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -736,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="82.5">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -762,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="99" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="132">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -788,7 +807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="49.5">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -814,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="49.5">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -840,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="49.5">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -869,7 +888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="33">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -896,6 +915,32 @@
       </c>
       <c r="I10" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="66">
+      <c r="A11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10200" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Codeforces" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Snacktower</t>
   </si>
@@ -284,6 +284,29 @@
   <si>
     <t>1WA 第一次dp写错了，于是打的表也错了
 2AC</t>
+  </si>
+  <si>
+    <t>768F</t>
+  </si>
+  <si>
+    <t>Barrels and boxes</t>
+  </si>
+  <si>
+    <t>F个食物和W个酒，需要放成一列的若干堆，每堆仅有食物或者酒，且相邻两堆的物体不一样；问所有可能的排列中，所有酒堆的数量都大于H的概率是多少</t>
+  </si>
+  <si>
+    <t>暴力、组合、数论、概率</t>
+  </si>
+  <si>
+    <t>最后的输出是P/Q的形式，其中Q就是F个食物和W个酒的全排列；P是按照酒的堆数分开计算，当堆数为u时，这u堆酒和所有食物的排列类型有C(F+1.u)种（即在F+1个间隔中选u个），每种类型内的种类数即为将W个酒放在u个位置上，要求每个位置都大于H，可以直接用C(W-uH+u-1, u-1)进行计算，按照官方题解的思路也可以考虑成{x^(h+1)*(1+x+…)}^u展开后x^w项的系数</t>
+  </si>
+  <si>
+    <t>1-4WA mo的类型写成了int，于是在新的编译系统下输出为0
+5WA 没有考虑w=0下的边界条件
+6AC</t>
+  </si>
+  <si>
+    <t>不是一道非常难的题，但是乍看下去有点绕，我应该更多的思考一下再看题解的</t>
   </si>
 </sst>
 </file>
@@ -629,22 +652,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.453125" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="51.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="51.453125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -677,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="82.5">
+    <row r="2" spans="1:9" ht="66">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -755,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="82.5">
+    <row r="5" spans="1:9" ht="66">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -781,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="132">
+    <row r="6" spans="1:9" ht="99">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -807,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="49.5">
+    <row r="7" spans="1:9" ht="33">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -917,7 +940,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="66">
+    <row r="11" spans="1:9" ht="49.5">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -941,6 +964,35 @@
       </c>
       <c r="H11" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="115.5">
+      <c r="A12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AF046-1F9B-470D-A7B8-45F93288C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="850" yWindow="-110" windowWidth="24860" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codeforces" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
   <si>
     <t>Snacktower</t>
   </si>
@@ -158,9 +159,6 @@
     <t>一棵结点权值可能为负的树，如何拆成权值和相等的三部分？</t>
   </si>
   <si>
-    <t>对于给定的输入序列（10^5），一个数字被输出当且仅当所有比他大的数字都被输出（一旦满足则立即输出），否则就被暂存起来，模拟这个过程（每输入一个数后输出哪几个数）。</t>
-  </si>
-  <si>
     <t>贪心</t>
   </si>
   <si>
@@ -308,22 +306,142 @@
   <si>
     <t>不是一道非常难的题，但是乍看下去有点绕，我应该更多的思考一下再看题解的</t>
   </si>
+  <si>
+    <t>对于给定的输入序列（10^5），一个数字被输出当且仅当所有比他大的数字都被输出（一旦满足则立即输出），否则就被暂存起来，模拟这个过程（每输入一个数后输出哪几个数）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1872A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Vessels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个无限大的桶，一个容量为C的杯子，需要几次能把两个桶中装的水变为一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于每次杯子装的水可以是任意的，直接算ceil(|a - b| / c / 2)即可，注意除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较简单直接，一开始还想错了，但样例给的很多，样例对了别的很难错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1872B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Corridor or There and Back Again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个无限长的走廊中，你可以从1走到任意格点然后走回1。走廊有N个陷阱，每个陷阱位置在di在经过si秒后触发，不能经过已经触发的陷阱，问选择的折返点最远是多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学、贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个陷阱是独立的。对于一个陷阱，其触发时间为di+si-1，离开该位置的时间为k-1+(k-di)，离开的瞬间陷阱不能被处罚，所以是小于。在所有陷阱中选最小值即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较简单直接，关于符号和时间点的关系需要理清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1872C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-coprime Split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于给定的L, R，找到A, B，满足L&lt;=A+B&lt;=R，GCD(A, B)≠1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先A和B的选择策略是非常多的，其次可以先考虑A+B，而只要A+B是个偶数就可以将A和B分别设为2和N-2；只有L=R且为奇数的时候，需要算一下它的质因数，然后构造A和B；这两个部分可以统一完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学、构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点意思的构造题，只要确认先构造A+B，剩下的都很简单。不过最开始也没有想2的事情，是样例跑出来才意识到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plus Minus Permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1872D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于一个排列，其得分为所有下标被A整出的位置监狱所有下标被B整除的位置，问最大得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先算出A和B的独立位置数，N / A - N / (A * B / GCD(A, B))和N / B - N / (A * B / GCD(A, B))，然后往里面放最大最小的，求和即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是有点意思的构造题，一开始的时候没有想太清楚需要算GCD，直接按GCD=1来算的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ata Structures Fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1872E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学、位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些奇怪的数据结构操作，建议直接看题面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用异或的性质，会发现他的两种操作都可以优化成o(1)，只需要维护当前所有0的异或和以及当前所有1的异或和即可，主要利用的x xor x =0的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些意思的题目，需要对异或的性质有充分的了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -651,27 +769,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="55.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="57.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.4140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.4140625" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="51.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="51.4140625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -691,16 +809,16 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="66">
+    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -708,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -726,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="132">
+    <row r="3" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -752,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="181.5">
+    <row r="4" spans="1:9" ht="165" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -778,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="66">
+    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -804,7 +922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="99">
+    <row r="6" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -815,10 +933,10 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>28</v>
@@ -830,24 +948,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33">
+    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -856,24 +974,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="49.5">
+    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -882,24 +1000,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="49.5">
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>4</v>
@@ -908,27 +1026,27 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="33">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -937,27 +1055,27 @@
         <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="49.5">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G11" s="2">
         <v>4</v>
@@ -966,24 +1084,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="115.5">
+    <row r="12" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -992,7 +1110,152 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AF046-1F9B-470D-A7B8-45F93288C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB8E541-F6DA-4A20-BBD1-8CEC4BD184B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="850" yWindow="-110" windowWidth="24860" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
   <si>
     <t>Snacktower</t>
   </si>
@@ -403,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ata Structures Fan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1872E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +420,78 @@
   </si>
   <si>
     <t>有些意思的题目，需要对异或的性质有充分的了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Structures Fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1867A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green_gold_dog, array and permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于长度为N的数组A，要求一个N的排列B，使得A-B中不同的数字尽量多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造、贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对A从小到大排序，B对应的为N…1，则能保证所有数字均不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较简单直接，构造的证明也非常简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR Palindromes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个长度为N的01串A，问是否存在长度为（0..M）的01串B，使得A xor B是回文的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先计算使得A变为回文至少需要修改的数量K，然后K,K+2,K+4..都可以，但要注意最开始修改的这K个位置对应的部分也是不能修改的0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最开始没有考虑K的另一半的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1867B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1867C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salyg1n and the MEX Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于一个初始数组，A每次添加一个数到数组中，B每次从中删除一个数，B删除的数一定比A删除的小，如果不能操作则终止，最终的分数为数组中最小的不存在的自然数。A（解答）需要使分数尽量高，B（系统）需要使分数尽量低（交互式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于贪心策略考虑的话，会发现A每次应当添加的即为当前数组中最小的不存在的自然数，因为B永远可以取0来使得A无法继续操作，所以要在一开始就直接尽量提高分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要进行一定思考的题目，证明花费了一段时间，不过想清楚还是很简单的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1115,19 +1183,19 @@
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>50</v>
@@ -1136,27 +1204,27 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>50</v>
@@ -1165,27 +1233,27 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>50</v>
@@ -1194,68 +1262,155 @@
         <v>2</v>
       </c>
       <c r="H15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
         <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB8E541-F6DA-4A20-BBD1-8CEC4BD184B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3E185B-7E85-45A6-ADD2-182E9E60E699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="850" yWindow="-110" windowWidth="24860" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1268,50 +1268,26 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>50</v>
@@ -1320,56 +1296,56 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>50</v>
@@ -1381,35 +1357,64 @@
         <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>105</v>
       </c>
     </row>

--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3E185B-7E85-45A6-ADD2-182E9E60E699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D459D-1A46-4F72-82F8-64EEC931D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="850" yWindow="-110" windowWidth="24860" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codeforces" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>Snacktower</t>
   </si>
@@ -492,6 +492,30 @@
   </si>
   <si>
     <t>需要进行一定思考的题目，证明花费了一段时间，不过想清楚还是很简单的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1882A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increasing Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定数组Ai，构造数组Bi，要求Bi为正、递增且Ai≠Bi，输出Bn的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bi的取值只与Bi-1和Ai有关，且Bi-1越小，对于Bi越有利，因此依次贪心选取即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1882B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,26 +862,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.4140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="55.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="57.4140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.2109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="51.4140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -886,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="65.150000000000006" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -912,7 +936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="130.30000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -938,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="165" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="162.9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -964,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="65.150000000000006" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -990,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="97.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1016,7 +1040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1042,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1068,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -1097,7 +1121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
@@ -1152,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="97.75" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1181,7 +1205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
@@ -1210,7 +1234,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
@@ -1239,7 +1263,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="65.150000000000006" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -1268,12 +1292,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1867</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>78</v>
       </c>
@@ -1302,7 +1326,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -1331,7 +1355,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="65.150000000000006" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -1360,7 +1384,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>97</v>
       </c>
@@ -1389,7 +1413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>101</v>
       </c>
@@ -1416,6 +1440,37 @@
       </c>
       <c r="I21" s="2" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D459D-1A46-4F72-82F8-64EEC931D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634EB921-D773-48D8-A517-DD58D54F0FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="155">
   <si>
     <t>Snacktower</t>
   </si>
@@ -518,12 +518,109 @@
     <t>1882B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1878A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How Much Does Daytona Cost?</t>
+  </si>
+  <si>
+    <t>给定数组A，判断是否存在区间[l, r]，其众数为k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要有一个k，那就存在区间的众数为k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被自己坑了，想了一个枚举区间，然后维护其中k的数量以及最多的非k数字的数量，不过即使这样也不对，因为可以直接统计其中数量最多的数字，然后判断是不是k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1878B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aleksa and Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造一个长度为N的数列，满足3*a_{i+2}不被a_i+a_{i+1}整除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从3开始的奇数数列即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1878C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vasilije in Cacak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定n,k,x，判断是否能构造一个长度为k，范围在[1,n]的递增序列，和为x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要从sum_min&lt;=x&lt;=sum_max即可，注意&lt;=在div时需要特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=的处理有点微妙，或许可以直接用longlong来搞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1878D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Madness</t>
+  </si>
+  <si>
+    <t>数据结构、贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要看一个位置被几个区间覆盖即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1WA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化后为，对于一个区间，每次将他沿中线的左右一定长度翻转，并输出若干次操作后的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有考虑给的区间边界为右界的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iva &amp; Pav</t>
+  </si>
+  <si>
+    <t>1878E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定数组A和若干询问(l, k)，找到最大的r，满足区间[l, r]的按位与大于等于k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +650,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -571,10 +676,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -582,9 +688,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -862,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
@@ -1442,21 +1555,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>50</v>
@@ -1467,15 +1580,147 @@
       <c r="H22" s="2">
         <v>2</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" tooltip="Codeforces Round 900 (Div. 3)" display="https://codeforces.com/contest/1878/problem/A" xr:uid="{6E553854-F313-42D8-A5F7-AAE438AB5242}"/>
+    <hyperlink ref="B25" r:id="rId2" tooltip="Codeforces Round 900 (Div. 3)" display="https://codeforces.com/contest/1878/problem/D" xr:uid="{4207D6DC-0187-4137-A0F6-9FD57E426D85}"/>
+    <hyperlink ref="B26" r:id="rId3" tooltip="Codeforces Round 900 (Div. 3)" display="https://codeforces.com/contest/1878/problem/E" xr:uid="{AC1F7D8C-6969-466B-9096-CC6F1F0F8422}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634EB921-D773-48D8-A517-DD58D54F0FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58232B6-10AD-49C4-913C-D01D577C44AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
   <si>
     <t>Snacktower</t>
   </si>
@@ -523,96 +523,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>给定数组A，判断是否存在区间[l, r]，其众数为k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要有一个k，那就存在区间的众数为k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被自己坑了，想了一个枚举区间，然后维护其中k的数量以及最多的非k数字的数量，不过即使这样也不对，因为可以直接统计其中数量最多的数字，然后判断是不是k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1878B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aleksa and Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造一个长度为N的数列，满足3*a_{i+2}不被a_i+a_{i+1}整除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从3开始的奇数数列即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1878C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vasilije in Cacak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定n,k,x，判断是否能构造一个长度为k，范围在[1,n]的递增序列，和为x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要从sum_min&lt;=x&lt;=sum_max即可，注意&lt;=在div时需要特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=的处理有点微妙，或许可以直接用longlong来搞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1878D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构、贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要看一个位置被几个区间覆盖即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1WA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化后为，对于一个区间，每次将他沿中线的左右一定长度翻转，并输出若干次操作后的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有考虑给的区间边界为右界的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1878E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定数组A和若干询问(l, k)，找到最大的r，满足区间[l, r]的按位与大于等于k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1859A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United We Stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个数组A划分为两个数组B和C，使得B中的任意数字都不能被C中的任意数字整除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在不同的大小的元素时，简单按大小划分使得maxB&lt;minC即可，全相同时则无解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1859B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olya and Game with Arrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有N个数组，对于每个数组，可以将其中至多一个元素放到其他数组中，为所有数组的最小数之和最大能是多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑全局最小数的位置，确定后，其他数组均可以将该数组中最小移至此处从而获取第二小的值。因此相当于在所有数组的第二小中，将其中最小的替换成allmin即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实写的时候没有考虑allmin那一行的情况，但是确实没有影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>How Much Does Daytona Cost?</t>
-  </si>
-  <si>
-    <t>给定数组A，判断是否存在区间[l, r]，其众数为k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要有一个k，那就存在区间的众数为k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被自己坑了，想了一个枚举区间，然后维护其中k的数量以及最多的非k数字的数量，不过即使这样也不对，因为可以直接统计其中数量最多的数字，然后判断是不是k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1878B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aleksa and Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>构造一个长度为N的数列，满足3*a_{i+2}不被a_i+a_{i+1}整除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从3开始的奇数数列即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1878C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vasilije in Cacak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给定n,k,x，判断是否能构造一个长度为k，范围在[1,n]的递增序列，和为x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要从sum_min&lt;=x&lt;=sum_max即可，注意&lt;=在div时需要特殊处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=的处理有点微妙，或许可以直接用longlong来搞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1878D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reverse Madness</t>
-  </si>
-  <si>
-    <t>数据结构、贪心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只需要看一个位置被几个区间覆盖即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1WA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简化后为，对于一个区间，每次将他沿中线的左右一定长度翻转，并输出若干次操作后的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有考虑给的区间边界为右界的情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Iva &amp; Pav</t>
-  </si>
-  <si>
-    <t>1878E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给定数组A和若干询问(l, k)，找到最大的r，满足区间[l, r]的按位与大于等于k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1859C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Another Permutation Problem</t>
+  </si>
+  <si>
+    <t>找到使得Sum(i * pi) - max(i * pi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举max(i * pi)的构成，即i和pi，剩下的元素基于pi从高到低依次放到最右侧（因为放置空间都是[1, MAX / pi])。在找放置位置的时候我用的是并查集（？），题解用的是栈，感觉更优雅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrey and Escape from Capygrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1859D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条直线上，当处于[Li, Ri]时，可以传送到[Ai, Bi]，其中Li&lt;=Ai&lt;=Bi&lt;=Ri，对于一些询问X，问起点为X时，能传送到的最右侧的位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很有趣的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 假设要对传送关系构图，那么在建立i-&gt;j的边时，只考虑可以传送且Bj最大的那条边（证明思路为：a. 传送路径的Li, Ri是连续的；b. 即使选择Bj非最大的边，也一定存在某一刻的Lt, Rt包括了Bj这个点，替换即可）
+2. 同理，可以无视Ai的存在，只考虑Bi这个点，因此只需要对所有操作按坐标从大到小排序，然后一边构图，一边在图上dp（？），一边处理询问即可。
+用了堆来维护，但是题解中用了multiset，可以更快的编码（但需要注意multiset的erase会删除所有，同时需要利用multiset来进行转移，因为找到的不是j，而是bj或fj）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +704,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,14 +734,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -676,11 +752,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -688,16 +763,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -975,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
@@ -1320,19 +1388,19 @@
     </row>
     <row r="13" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>50</v>
@@ -1343,88 +1411,106 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="14" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="65.150000000000006" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="162.9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <v>2</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>1867</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>50</v>
@@ -1433,27 +1519,27 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>50</v>
@@ -1462,27 +1548,27 @@
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="65.150000000000006" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>50</v>
@@ -1491,85 +1577,61 @@
         <v>2</v>
       </c>
       <c r="H19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>3</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>50</v>
@@ -1578,125 +1640,143 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="65.150000000000006" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>136</v>
+        <v>90</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>140</v>
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="48.9" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="I26" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>50</v>
@@ -1705,22 +1785,122 @@
         <v>1</v>
       </c>
       <c r="H27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="I28" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="32.6" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" tooltip="Codeforces Round 900 (Div. 3)" display="https://codeforces.com/contest/1878/problem/A" xr:uid="{6E553854-F313-42D8-A5F7-AAE438AB5242}"/>
-    <hyperlink ref="B25" r:id="rId2" tooltip="Codeforces Round 900 (Div. 3)" display="https://codeforces.com/contest/1878/problem/D" xr:uid="{4207D6DC-0187-4137-A0F6-9FD57E426D85}"/>
-    <hyperlink ref="B26" r:id="rId3" tooltip="Codeforces Round 900 (Div. 3)" display="https://codeforces.com/contest/1878/problem/E" xr:uid="{AC1F7D8C-6969-466B-9096-CC6F1F0F8422}"/>
+    <hyperlink ref="B26" r:id="rId1" tooltip="Codeforces Round 900 (Div. 3)" display="https://codeforces.com/contest/1878/problem/A" xr:uid="{6E553854-F313-42D8-A5F7-AAE438AB5242}"/>
+    <hyperlink ref="B29" r:id="rId2" tooltip="Codeforces Round 900 (Div. 3)" display="https://codeforces.com/contest/1878/problem/D" xr:uid="{4207D6DC-0187-4137-A0F6-9FD57E426D85}"/>
+    <hyperlink ref="B30" r:id="rId3" tooltip="Codeforces Round 900 (Div. 3)" display="https://codeforces.com/contest/1878/problem/E" xr:uid="{AC1F7D8C-6969-466B-9096-CC6F1F0F8422}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://codeforces.com/contest/1859/problem/B" xr:uid="{6400D884-0296-44D2-AEC7-CB6BCABE22EF}"/>
+    <hyperlink ref="B16" r:id="rId5" display="https://codeforces.com/contest/1859/problem/C" xr:uid="{F884D6A9-0861-4BBC-8159-C80C60927B98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F91D1-A75E-41EF-ADF2-4ABD0B891B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429BA6EE-130D-4C83-9033-FEEA1172FF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="192">
   <si>
     <t>767A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,146 +580,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1857A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断奇数的数量即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1857B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个高精度数进行若干次四舍五入（在任意位数上）后能得到的最大数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊情况是类似44444445这样，从个位开始依次四舍五入进位即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1857C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F个食物和W个酒，需要放成一列的若干堆，每堆仅有食物或者酒，且相邻两堆的物体不一样；问所有可能的排列中，所有酒堆的数量都大于H的概率是多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于一个数组A，其两两最小值可以得到一个数组B（n * (n-1) / 2个元素），现给定乱序的B，求任意符合条件的A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到的是n*n矩阵的右上三角，因此最小值出现n-1次，次小值出现n-2次……，因此对B排序后依次寻找即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1857D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个数组a和b，结点i到j有连边当且仅当a_u-a_v&gt;=b_u-b_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变换公式为a_u-b_u&gt;=a_v-b_v，因此输出a_i-b_i最大的所有i即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1857E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计第一个点的答案，然后从i推i+1，或者用前缀和一类的；做的时候是按题面更复杂的描述做的，实际上可以简化成现在这样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1857F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线上N个点，求每个点到其他点的距离之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于给定的数组，判断其中有多少A_i&lt;j，满足Ai+Aj=X,Ai*Aj=Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于求根公式，然后找数组里的某个数的数量，最后再算即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2WA i=n-1时数组越界了
+3AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1TLE multiset的count有点慢
+2RE 校验p*q==y时，为了避免溢出用的除法，但没有考虑0的情况
+3AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1857G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于一棵树T，寻找所有可能的简单图，其边上权值不超过K，同时其最小生成树唯一且为T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑Kruskal算法，对树的边排序后，其每一条边被唯一选入生成树的条件是其连接的两个集合中的连边均&gt;该边，由于计算后两个集合就合并，所以每条边只会受到一次限制，基于取余计算即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个数组，只能对同奇偶的数进行交换，问能否完成排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否将N个数划分成两个非空的集合，并且集合中元素之和同奇偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 假设要对传送关系构图，那么在建立i-&gt;j的边时，只考虑可以传送且Bj最大的那条边（证明思路为：a. 传送路径的Li, Ri是连续的；b. 即使选择Bj非最大的边，也一定存在某一刻的Lt, Rt包括了Bj这个点，替换即可）
 2. 同理，可以无视Ai的存在，只考虑Bi这个点，因此只需要对所有操作按坐标从大到小排序，然后一边构图，一边在图上dp（？），一边处理询问即可。
 用了堆来维护，但是题解中用了multiset，可以更快的编码（但需要注意multiset的erase会删除所有，同时需要利用multiset来进行转移，因为找到的不是j，而是bj或fj）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1857A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断奇数的数量即可</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>能否将N个数划分成</t>
+      <t>逐个计算高度差是否是阶梯高度的倍数即可，注意</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线 Light"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>两个非空的集合</t>
+      <t>不能为0</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线 Light"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，并且集合中元素之和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线 Light"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同奇偶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1857B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对一个高精度数进行若干次四舍五入（在任意位数上）后能得到的最大数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊情况是类似44444445这样，从个位开始依次四舍五入进位即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1857C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F个食物和W个酒，需要放成一列的若干堆，每堆仅有食物或者酒，且相邻两堆的物体不一样；问所有可能的排列中，所有酒堆的数量都大于H的概率是多少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于一个数组A，其两两最小值可以得到一个数组B（n * (n-1) / 2个元素），现给定乱序的B，求任意符合条件的A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿到的是n*n矩阵的右上三角，因此最小值出现n-1次，次小值出现n-2次……，因此对B排序后依次寻找即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1857D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给定两个数组a和b，结点i到j有连边当且仅当a_u-a_v&gt;=b_u-b_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变换公式为a_u-b_u&gt;=a_v-b_v，因此输出a_i-b_i最大的所有i即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1857E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计第一个点的答案，然后从i推i+1，或者用前缀和一类的；做的时候是按题面更复杂的描述做的，实际上可以简化成现在这样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1857F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直线上N个点，求每个点到其他点的距离之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于给定的数组，判断其中有多少A_i&lt;j，满足Ai+Aj=X,Ai*Aj=Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于求根公式，然后找数组里的某个数的数量，最后再算即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2WA i=n-1时数组越界了
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个数组，选择一个长度为K整数倍的子序列，要求必须包含1和N，且按1..K,K+1..2K,…划分序列后，每个划分块中的元素相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果A1=AN，只需看整个数组是否存在K个A1；否则通过双指针从左找K个A1和从右找K个AN，判断能否找完且双指针不相遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界条件还挺麻烦的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定N个人的高度，判断一个等差楼梯上，能和编号为1的人通过在站在两个不同的阶梯上获得相同高度的人数（不要求同时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我自己的做法是将奇偶分开排序后合起来看是否和整体排序一致；题解的思路是整体排序后和原数组比较，看对应位的奇偶是否一致，更巧妙一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个数组A，计算其前缀和S，并从中删除一个元素后给你，问A是否可能是一个排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况下，删除中间某个数，则会发现还原的A中丢失了两个数，多了一个数，计数后判断即可；特殊情况是丢失了最后一个和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊情况也比较麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N种药剂，可以直接购买，或者已经无限量拥有，或者使用其他药剂合成，问获得每种药剂的最低成本，合成路径不存在循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序，并按顺序DP即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1WA 答案会超整型
+2AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N个数，问(Ai xor X) &amp; (Aj xor X)的最大值，X的位数有限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2WA 只考虑了从开始连续相同的部分，没有考虑剩余的部分还有可能相同
 3AC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1TLE multiset的count有点慢
-2RE 校验p*q==y时，为了避免溢出用的除法，但没有考虑0的情况
-3AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1857G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于一棵树T，寻找所有可能的简单图，其边上权值不超过K，同时其最小生成树唯一且为T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑Kruskal算法，对树的边排序后，其每一条边被唯一选入生成树的条件是其连接的两个集合中的连边均&gt;该边，由于计算后两个集合就合并，所以每条边只会受到一次限制，基于取余计算即可</t>
+    <t>从高位考虑，只有Ai,k=Aj,k，才能够通过设置X使得该位组中为1，因此可以使X=~Ai,则答案为~Ai xor Aj，使用Trie型结构即可；也可以证明，转成字符串排序后从高到低排序后，答案一定出在相邻的位置（可以直接在64位整型中通过在m位设置1来避免到字符串的转化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点意思</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +804,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,31 +823,10 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线 Light"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线 Light"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -793,19 +849,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,852 +1140,995 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.2109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="53.2109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="2.35546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.78515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="169.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="169.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="212.15" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="198" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="99" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>1851</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2">
+        <v>800</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="2">
+        <v>800</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="G21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="D26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="141.44999999999999" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="F31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>1867</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="F39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1500</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1600</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2000</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="D42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="183.9" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="4">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="99" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>1867</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="4">
-        <v>2</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="4">
-        <v>2</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="4">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="4">
-        <v>2</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="G44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:A18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/informatics.xlsx
+++ b/informatics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498BB412-C1E3-414A-AB1F-2C90B51E84C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D692FC1-B8E5-46B4-B78C-3900DD720A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="187">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,9 +724,8 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -736,12 +735,65 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>给定数组A，每次仅能对前2^i个数-1，问能否使A有序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2^i+1,2^(i+1)]范围内的相对大小是固定的；题解思路是判断a[x]和a[x+1]时，只有x是2^i时才可以例外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定数组A和B，对于Ai，依次遍历Bj，若Ai被2^Bj整除，则Ai+=2^(Bj-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能触发加法的Bj一定是递减的，因此可以对B简化至最多30个数；可以打一个0~30的表，根据Ai末端的0来直接输出，但好像不影响时间复杂度（最多用位运算来优化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定N个怪物的血量Ai，有两种攻击，-1血，积攒1连击；-连击数血，连击清空，问至少需要多少次攻击可以消灭所有怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑一次伤害为X的连击，其总共消耗2X血，花费X+1的时间；不难发现，总时间为(总血量+1)/2 + 连击次数，因此连击次数越少越好；所以按怪物血量从大到小依次处理即可，注意只剩1血时的边界情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令f(x)表示x二进制的长度，g(x)表示最大的z，满足f(x)^z&lt;=x，计算sum(g[l],…,g[r])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过计算log(2^i, i), log(2^(i+1)-1, i)发现，对于f(x)相等的所有x，g(x)_min和g(x)_max最多差一，通过二分找到差的位置，就可以对g(x)的构成进行明确（最多60个连续段），然后用前缀和来算即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于给定的A，将其中最多K个数变为0，使得Sum(Gcd(Ai, Ai+1))最小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数组在gcd≠1的位置拆开，拆成的段形成共用K的独立问题；在一个段中，按连续的1和连续的非1拆分，连续的1是开区间（即与外侧的间距考虑在1上），连续的非1是闭区间；对于连续的非1而言，其存在最多(r-l)/2个位置，在变0后可以一次性使答案-2，可能剩下一个使得答案-1大的位置；对于连续的1而言，大部分情况下，其可以看做一次性设置r-l+1个0后，使得答案减少r-l+2（但这个会随着左右是原始区间的边界而非拆分的其他段减少），因此按照(r-l+2-(l==0)-(r==n-1))/(r-l+1)从大到小排序进行处理即可，注意原始数组全为1的特殊情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于一棵树，两种操作：添加一个新节点；将某棵子树中所有节点的权值均+x；输出每个节点的最终权值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于一个节点，其权值为其加入树后（T时刻），所有祖先节点进行的操作之和；或者其所有祖先节点进行在T时刻后进行的操作之和；因此可以在遍历树的过程中，维护根到当前节点进行的所有操作及其时刻（基于树状数组）；
+题解想了一个较为复杂的方式，没有太大必要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,38 +809,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -796,92 +833,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1159,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1170,12 +1139,12 @@
     <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.35546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="43.35546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1183,274 +1152,274 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>767</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>1100</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="169.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>2100</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="198" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>2000</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>2100</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>2400</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>768</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="99" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1458,764 +1427,887 @@
       <c r="A13" s="3">
         <v>1851</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>800</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="4"/>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>800</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="4"/>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>1000</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>1300</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>1500</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>1800</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>1900</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>1857</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="4"/>
+      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="4"/>
+      <c r="G22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>1500</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>1600</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>2000</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="4"/>
+      <c r="G26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>1859</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4" t="s">
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="155.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:8" ht="141.44999999999999" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="4"/>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="G32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="4" t="s">
+      <c r="G33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>1867</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="4" t="s">
+      <c r="G35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="4" t="s">
+      <c r="G36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
         <v>2</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="G37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="G38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
         <v>3</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="4" t="s">
+      <c r="G39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="G40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="4"/>
+      <c r="G41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="G42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
         <v>2</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" s="4"/>
+      <c r="G45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>1891</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="141.44999999999999" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A47:A52"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A26"/>
